--- a/data/五张图.xlsx
+++ b/data/五张图.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\viga-lite\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFED606-7E74-4DB9-BB53-B8AA91D9E5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8E16C0-9B96-40F7-B241-E4BF20A51436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2000" yWindow="-20020" windowWidth="16200" windowHeight="16210" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4270" yWindow="-21710" windowWidth="38620" windowHeight="21820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -530,7 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -20564,15 +20564,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D4F4BF-9378-45E8-8F66-D31BBA531193}">
-  <dimension ref="A1:F249"/>
+  <dimension ref="A1:G249"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20592,7 +20592,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -20611,8 +20611,12 @@
       <c r="F2">
         <v>1647.13</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2" t="str">
+        <f>VLOOKUP(B2,Sheet1!$A$3:$B$33,2,FALSE)</f>
+        <v>Anhui</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -20631,8 +20635,12 @@
       <c r="F3">
         <v>2141.92</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3" t="str">
+        <f>VLOOKUP(B3,Sheet1!A4:B34,2,FALSE)</f>
+        <v>Anhui</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -20651,8 +20659,12 @@
       <c r="F4">
         <v>2587.61</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4" t="str">
+        <f>VLOOKUP(B4,Sheet1!A5:B35,2,FALSE)</f>
+        <v>Anhui</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -20671,8 +20683,12 @@
       <c r="F5">
         <v>3302.99</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5" t="str">
+        <f>VLOOKUP(B5,Sheet1!A6:B36,2,FALSE)</f>
+        <v>Anhui</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -20691,8 +20707,12 @@
       <c r="F6">
         <v>3961.01</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6" t="str">
+        <f>VLOOKUP(B6,Sheet1!A7:B37,2,FALSE)</f>
+        <v>Anhui</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
@@ -20711,8 +20731,12 @@
       <c r="F7">
         <v>4349.6899999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G7" t="str">
+        <f>VLOOKUP(B7,Sheet1!A8:B38,2,FALSE)</f>
+        <v>Anhui</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
@@ -20731,8 +20755,12 @@
       <c r="F8">
         <v>4664.1000000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G8" t="str">
+        <f>VLOOKUP(B8,Sheet1!A9:B39,2,FALSE)</f>
+        <v>Anhui</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
@@ -20751,8 +20779,12 @@
       <c r="F9">
         <v>5239.01</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G9" t="str">
+        <f>VLOOKUP(B9,Sheet1!A10:B40,2,FALSE)</f>
+        <v>Anhui</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
@@ -20771,8 +20803,12 @@
       <c r="F10">
         <v>1959.29</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G10" t="e">
+        <f>VLOOKUP(B10,Sheet1!A11:B41,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
@@ -20791,8 +20827,12 @@
       <c r="F11">
         <v>2319.37</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G11" t="e">
+        <f>VLOOKUP(B11,Sheet1!A12:B42,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
@@ -20811,8 +20851,12 @@
       <c r="F12">
         <v>2717.32</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G12" t="e">
+        <f>VLOOKUP(B12,Sheet1!A13:B43,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -20831,8 +20875,12 @@
       <c r="F13">
         <v>3245.23</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G13" t="e">
+        <f>VLOOKUP(B13,Sheet1!A14:B44,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -20851,8 +20899,12 @@
       <c r="F14">
         <v>3685.31</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G14" t="e">
+        <f>VLOOKUP(B14,Sheet1!A15:B45,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>3</v>
       </c>
@@ -20871,8 +20923,12 @@
       <c r="F15">
         <v>4173.66</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G15" t="e">
+        <f>VLOOKUP(B15,Sheet1!A16:B46,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
@@ -20891,8 +20947,12 @@
       <c r="F16">
         <v>4524.67</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G16" t="e">
+        <f>VLOOKUP(B16,Sheet1!A17:B47,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>3</v>
       </c>
@@ -20911,8 +20971,12 @@
       <c r="F17">
         <v>5737.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G17" t="e">
+        <f>VLOOKUP(B17,Sheet1!A18:B48,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -20931,8 +20995,12 @@
       <c r="F18">
         <v>1137.72</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G18" t="e">
+        <f>VLOOKUP(B18,Sheet1!A19:B49,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
@@ -20951,8 +21019,12 @@
       <c r="F19">
         <v>1411.82</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G19" t="e">
+        <f>VLOOKUP(B19,Sheet1!A20:B50,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>4</v>
       </c>
@@ -20971,8 +21043,12 @@
       <c r="F20">
         <v>1695.09</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G20" t="e">
+        <f>VLOOKUP(B20,Sheet1!A21:B51,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -20991,8 +21067,12 @@
       <c r="F21">
         <v>2198.1799999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G21" t="e">
+        <f>VLOOKUP(B21,Sheet1!A22:B52,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
@@ -21011,8 +21091,12 @@
       <c r="F22">
         <v>2607.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G22" t="e">
+        <f>VLOOKUP(B22,Sheet1!A23:B53,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -21031,8 +21115,12 @@
       <c r="F23">
         <v>3068.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G23" t="e">
+        <f>VLOOKUP(B23,Sheet1!A24:B54,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
@@ -21051,8 +21139,12 @@
       <c r="F24">
         <v>3306.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G24" t="e">
+        <f>VLOOKUP(B24,Sheet1!A25:B55,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>4</v>
       </c>
@@ -21071,8 +21163,12 @@
       <c r="F25">
         <v>4001.58</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G25" t="e">
+        <f>VLOOKUP(B25,Sheet1!A26:B56,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -21091,8 +21187,12 @@
       <c r="F26">
         <v>968.43</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G26" t="str">
+        <f>VLOOKUP(B26,Sheet1!A27:B57,2,FALSE)</f>
+        <v>Gansu</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
@@ -21111,8 +21211,12 @@
       <c r="F27">
         <v>1246.28</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G27" t="str">
+        <f>VLOOKUP(B27,Sheet1!A28:B58,2,FALSE)</f>
+        <v>Gansu</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -21131,8 +21235,12 @@
       <c r="F28">
         <v>1468.58</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G28" t="str">
+        <f>VLOOKUP(B28,Sheet1!A29:B59,2,FALSE)</f>
+        <v>Gansu</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -21151,8 +21259,12 @@
       <c r="F29">
         <v>1791.24</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G29" t="str">
+        <f>VLOOKUP(B29,Sheet1!A30:B60,2,FALSE)</f>
+        <v>Gansu</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
         <v>5</v>
       </c>
@@ -21171,8 +21283,12 @@
       <c r="F30">
         <v>2059.56</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G30" t="e">
+        <f>VLOOKUP(B30,Sheet1!A31:B61,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
         <v>5</v>
       </c>
@@ -21191,8 +21307,12 @@
       <c r="F31">
         <v>2309.62</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G31" t="e">
+        <f>VLOOKUP(B31,Sheet1!A32:B62,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -21211,8 +21331,12 @@
       <c r="F32">
         <v>2541.4899999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G32" t="e">
+        <f>VLOOKUP(B32,Sheet1!A33:B63,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -21231,8 +21355,12 @@
       <c r="F33">
         <v>2958.31</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G33" t="e">
+        <f>VLOOKUP(B33,Sheet1!A34:B64,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
         <v>6</v>
       </c>
@@ -21251,8 +21379,12 @@
       <c r="F34">
         <v>3778.57</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G34" t="e">
+        <f>VLOOKUP(B34,Sheet1!A35:B65,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -21271,8 +21403,12 @@
       <c r="F35">
         <v>4334.37</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G35" t="e">
+        <f>VLOOKUP(B35,Sheet1!A36:B66,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -21291,8 +21427,12 @@
       <c r="F36">
         <v>5421.54</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G36" t="e">
+        <f>VLOOKUP(B36,Sheet1!A37:B67,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -21311,8 +21451,12 @@
       <c r="F37">
         <v>6712.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G37" t="e">
+        <f>VLOOKUP(B37,Sheet1!A38:B68,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -21331,8 +21475,12 @@
       <c r="F38">
         <v>7387.86</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G38" t="e">
+        <f>VLOOKUP(B38,Sheet1!A39:B69,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -21351,8 +21499,12 @@
       <c r="F39">
         <v>8411</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G39" t="e">
+        <f>VLOOKUP(B39,Sheet1!A40:B70,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -21371,8 +21523,12 @@
       <c r="F40">
         <v>9152.64</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G40" t="e">
+        <f>VLOOKUP(B40,Sheet1!A41:B71,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -21391,8 +21547,12 @@
       <c r="F41">
         <v>12827.8</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="27" x14ac:dyDescent="0.4">
+      <c r="G41" t="e">
+        <f>VLOOKUP(B41,Sheet1!A42:B72,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="27" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
         <v>7</v>
       </c>
@@ -21411,8 +21571,12 @@
       <c r="F42">
         <v>1297.1099999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G42" t="e">
+        <f>VLOOKUP(B42,Sheet1!A43:B73,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
         <v>7</v>
       </c>
@@ -21431,8 +21595,12 @@
       <c r="F43">
         <v>1621.82</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G43" t="e">
+        <f>VLOOKUP(B43,Sheet1!A44:B74,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
         <v>7</v>
       </c>
@@ -21451,8 +21619,12 @@
       <c r="F44">
         <v>2007.59</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="27" x14ac:dyDescent="0.4">
+      <c r="G44" t="e">
+        <f>VLOOKUP(B44,Sheet1!A45:B75,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -21471,8 +21643,12 @@
       <c r="F45">
         <v>2545.2800000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G45" t="e">
+        <f>VLOOKUP(B45,Sheet1!A46:B76,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="6" t="s">
         <v>7</v>
       </c>
@@ -21491,8 +21667,12 @@
       <c r="F46">
         <v>2985.23</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G46" t="e">
+        <f>VLOOKUP(B46,Sheet1!A47:B77,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="6" t="s">
         <v>7</v>
       </c>
@@ -21511,8 +21691,12 @@
       <c r="F47">
         <v>3208.67</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G47" t="e">
+        <f>VLOOKUP(B47,Sheet1!A48:B78,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="6" t="s">
         <v>7</v>
       </c>
@@ -21531,8 +21715,12 @@
       <c r="F48">
         <v>3479.79</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G48" t="e">
+        <f>VLOOKUP(B48,Sheet1!A49:B79,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
         <v>7</v>
       </c>
@@ -21551,8 +21739,12 @@
       <c r="F49">
         <v>4065.51</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G49" t="e">
+        <f>VLOOKUP(B49,Sheet1!A50:B80,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="5" t="s">
         <v>8</v>
       </c>
@@ -21571,8 +21763,12 @@
       <c r="F50">
         <v>1053.79</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G50" t="e">
+        <f>VLOOKUP(B50,Sheet1!A51:B81,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="6" t="s">
         <v>8</v>
       </c>
@@ -21591,8 +21787,12 @@
       <c r="F51">
         <v>1372.27</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G51" t="e">
+        <f>VLOOKUP(B51,Sheet1!A52:B82,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="6" t="s">
         <v>8</v>
       </c>
@@ -21611,8 +21811,12 @@
       <c r="F52">
         <v>1631.48</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G52" t="e">
+        <f>VLOOKUP(B52,Sheet1!A53:B83,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -21631,8 +21835,12 @@
       <c r="F53">
         <v>2249.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G53" t="e">
+        <f>VLOOKUP(B53,Sheet1!A54:B84,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="6" t="s">
         <v>8</v>
       </c>
@@ -21651,8 +21859,12 @@
       <c r="F54">
         <v>2755.68</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G54" t="e">
+        <f>VLOOKUP(B54,Sheet1!A55:B85,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="6" t="s">
         <v>8</v>
       </c>
@@ -21671,8 +21883,12 @@
       <c r="F55">
         <v>3082.66</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G55" t="e">
+        <f>VLOOKUP(B55,Sheet1!A56:B86,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
         <v>8</v>
       </c>
@@ -21691,8 +21907,12 @@
       <c r="F56">
         <v>3542.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G56" t="e">
+        <f>VLOOKUP(B56,Sheet1!A57:B87,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="6" t="s">
         <v>8</v>
       </c>
@@ -21711,8 +21931,12 @@
       <c r="F57">
         <v>3939.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G57" t="e">
+        <f>VLOOKUP(B57,Sheet1!A58:B88,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">
         <v>9</v>
       </c>
@@ -21731,8 +21955,12 @@
       <c r="F58">
         <v>357.97</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G58" t="e">
+        <f>VLOOKUP(B58,Sheet1!A59:B89,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="6" t="s">
         <v>9</v>
       </c>
@@ -21751,8 +21979,12 @@
       <c r="F59">
         <v>486.06</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G59" t="e">
+        <f>VLOOKUP(B59,Sheet1!A60:B90,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="6" t="s">
         <v>9</v>
       </c>
@@ -21771,8 +22003,12 @@
       <c r="F60">
         <v>581.34</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G60" t="e">
+        <f>VLOOKUP(B60,Sheet1!A61:B91,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -21791,8 +22027,12 @@
       <c r="F61">
         <v>778.8</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G61" t="e">
+        <f>VLOOKUP(B61,Sheet1!A62:B92,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
         <v>9</v>
       </c>
@@ -21811,8 +22051,12 @@
       <c r="F62">
         <v>911.67</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G62" t="e">
+        <f>VLOOKUP(B62,Sheet1!A63:B93,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="6" t="s">
         <v>9</v>
       </c>
@@ -21831,8 +22075,12 @@
       <c r="F63">
         <v>1011.17</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G63" t="e">
+        <f>VLOOKUP(B63,Sheet1!A64:B94,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="6" t="s">
         <v>9</v>
       </c>
@@ -21851,8 +22099,12 @@
       <c r="F64">
         <v>1099.74</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G64" t="e">
+        <f>VLOOKUP(B64,Sheet1!A65:B95,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="6" t="s">
         <v>9</v>
       </c>
@@ -21871,8 +22123,12 @@
       <c r="F65">
         <v>1239.43</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G65" t="e">
+        <f>VLOOKUP(B65,Sheet1!A66:B96,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="5" t="s">
         <v>10</v>
       </c>
@@ -21891,8 +22147,12 @@
       <c r="F66">
         <v>1881.67</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G66" t="e">
+        <f>VLOOKUP(B66,Sheet1!A67:B97,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="6" t="s">
         <v>10</v>
       </c>
@@ -21911,8 +22171,12 @@
       <c r="F67">
         <v>2347.59</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G67" t="e">
+        <f>VLOOKUP(B67,Sheet1!A68:B98,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="6" t="s">
         <v>10</v>
       </c>
@@ -21931,8 +22195,12 @@
       <c r="F68">
         <v>2820.24</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G68" t="e">
+        <f>VLOOKUP(B68,Sheet1!A69:B99,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
@@ -21951,8 +22219,12 @@
       <c r="F69">
         <v>3537.39</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G69" t="e">
+        <f>VLOOKUP(B69,Sheet1!A70:B100,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="6" t="s">
         <v>10</v>
       </c>
@@ -21971,8 +22243,12 @@
       <c r="F70">
         <v>4079.44</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G70" t="e">
+        <f>VLOOKUP(B70,Sheet1!A71:B101,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="6" t="s">
         <v>10</v>
       </c>
@@ -21991,8 +22267,12 @@
       <c r="F71">
         <v>4409.58</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G71" t="e">
+        <f>VLOOKUP(B71,Sheet1!A72:B102,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="6" t="s">
         <v>10</v>
       </c>
@@ -22011,8 +22291,12 @@
       <c r="F72">
         <v>4677.3</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G72" t="e">
+        <f>VLOOKUP(B72,Sheet1!A73:B103,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
         <v>10</v>
       </c>
@@ -22031,8 +22315,12 @@
       <c r="F73">
         <v>5632.19</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G73" t="e">
+        <f>VLOOKUP(B73,Sheet1!A74:B104,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="5" t="s">
         <v>11</v>
       </c>
@@ -22051,8 +22339,12 @@
       <c r="F74">
         <v>2281.61</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G74" t="e">
+        <f>VLOOKUP(B74,Sheet1!A75:B105,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
         <v>11</v>
       </c>
@@ -22071,8 +22363,12 @@
       <c r="F75">
         <v>2905.76</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G75" t="e">
+        <f>VLOOKUP(B75,Sheet1!A76:B106,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
         <v>11</v>
       </c>
@@ -22091,8 +22387,12 @@
       <c r="F76">
         <v>3416.14</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G76" t="e">
+        <f>VLOOKUP(B76,Sheet1!A77:B107,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>11</v>
       </c>
@@ -22111,8 +22411,12 @@
       <c r="F77">
         <v>4248.82</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G77" t="e">
+        <f>VLOOKUP(B77,Sheet1!A78:B108,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
         <v>11</v>
       </c>
@@ -22131,8 +22435,12 @@
       <c r="F78">
         <v>5006.3999999999996</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G78" t="e">
+        <f>VLOOKUP(B78,Sheet1!A79:B109,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
         <v>11</v>
       </c>
@@ -22151,8 +22459,12 @@
       <c r="F79">
         <v>5582.31</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G79" t="e">
+        <f>VLOOKUP(B79,Sheet1!A80:B110,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
         <v>11</v>
       </c>
@@ -22171,8 +22483,12 @@
       <c r="F80">
         <v>6028.69</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G80" t="e">
+        <f>VLOOKUP(B80,Sheet1!A81:B111,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
         <v>11</v>
       </c>
@@ -22191,8 +22507,12 @@
       <c r="F81">
         <v>6799.35</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G81" t="e">
+        <f>VLOOKUP(B81,Sheet1!A82:B112,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="5" t="s">
         <v>12</v>
       </c>
@@ -22211,8 +22531,12 @@
       <c r="F82">
         <v>1542.3</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G82" t="e">
+        <f>VLOOKUP(B82,Sheet1!A83:B113,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
         <v>12</v>
       </c>
@@ -22231,8 +22555,12 @@
       <c r="F83">
         <v>1877.74</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G83" t="e">
+        <f>VLOOKUP(B83,Sheet1!A84:B114,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
         <v>12</v>
       </c>
@@ -22251,8 +22579,12 @@
       <c r="F84">
         <v>2253.27</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G84" t="e">
+        <f>VLOOKUP(B84,Sheet1!A85:B115,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
@@ -22271,8 +22603,12 @@
       <c r="F85">
         <v>2794.08</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G85" t="e">
+        <f>VLOOKUP(B85,Sheet1!A86:B116,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
         <v>12</v>
       </c>
@@ -22291,8 +22627,12 @@
       <c r="F86">
         <v>3171.52</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G86" t="e">
+        <f>VLOOKUP(B86,Sheet1!A87:B117,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>12</v>
       </c>
@@ -22311,8 +22651,12 @@
       <c r="F87">
         <v>3369.18</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G87" t="e">
+        <f>VLOOKUP(B87,Sheet1!A88:B118,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
         <v>12</v>
       </c>
@@ -22331,8 +22675,12 @@
       <c r="F88">
         <v>3434.22</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G88" t="e">
+        <f>VLOOKUP(B88,Sheet1!A89:B119,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>12</v>
       </c>
@@ -22351,8 +22699,12 @@
       <c r="F89">
         <v>4020.66</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G89" t="e">
+        <f>VLOOKUP(B89,Sheet1!A90:B120,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="5" t="s">
         <v>13</v>
       </c>
@@ -22371,8 +22723,12 @@
       <c r="F90">
         <v>1650.28</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G90" t="e">
+        <f>VLOOKUP(B90,Sheet1!A91:B121,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
         <v>13</v>
       </c>
@@ -22391,8 +22747,12 @@
       <c r="F91">
         <v>2090.92</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G91" t="e">
+        <f>VLOOKUP(B91,Sheet1!A92:B122,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
         <v>13</v>
       </c>
@@ -22411,8 +22771,12 @@
       <c r="F92">
         <v>2501.4</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G92" t="e">
+        <f>VLOOKUP(B92,Sheet1!A93:B123,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
@@ -22431,8 +22795,12 @@
       <c r="F93">
         <v>3214.74</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G93" t="e">
+        <f>VLOOKUP(B93,Sheet1!A94:B124,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
         <v>13</v>
       </c>
@@ -22451,8 +22819,12 @@
       <c r="F94">
         <v>3759.79</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G94" t="e">
+        <f>VLOOKUP(B94,Sheet1!A95:B125,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -22471,8 +22843,12 @@
       <c r="F95">
         <v>4371.6499999999996</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G95" t="e">
+        <f>VLOOKUP(B95,Sheet1!A96:B126,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
         <v>13</v>
       </c>
@@ -22491,8 +22867,12 @@
       <c r="F96">
         <v>4934.1499999999996</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G96" t="e">
+        <f>VLOOKUP(B96,Sheet1!A97:B127,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="6" t="s">
         <v>13</v>
       </c>
@@ -22511,8 +22891,12 @@
       <c r="F97">
         <v>6132.84</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G97" t="e">
+        <f>VLOOKUP(B97,Sheet1!A98:B128,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="5" t="s">
         <v>14</v>
       </c>
@@ -22531,8 +22915,12 @@
       <c r="F98">
         <v>1765.22</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G98" t="e">
+        <f>VLOOKUP(B98,Sheet1!A99:B129,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="6" t="s">
         <v>14</v>
       </c>
@@ -22551,8 +22939,12 @@
       <c r="F99">
         <v>2210.44</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G99" t="e">
+        <f>VLOOKUP(B99,Sheet1!A100:B130,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
         <v>14</v>
       </c>
@@ -22571,8 +22963,12 @@
       <c r="F100">
         <v>2702.48</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G100" t="e">
+        <f>VLOOKUP(B100,Sheet1!A101:B131,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>14</v>
       </c>
@@ -22591,8 +22987,12 @@
       <c r="F101">
         <v>3520.76</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G101" t="e">
+        <f>VLOOKUP(B101,Sheet1!A102:B132,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
         <v>14</v>
       </c>
@@ -22611,8 +23011,12 @@
       <c r="F102">
         <v>4119</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G102" t="e">
+        <f>VLOOKUP(B102,Sheet1!A103:B133,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
         <v>14</v>
       </c>
@@ -22631,8 +23035,12 @@
       <c r="F103">
         <v>4690.8900000000003</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G103" t="e">
+        <f>VLOOKUP(B103,Sheet1!A104:B134,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
         <v>14</v>
       </c>
@@ -22651,8 +23059,12 @@
       <c r="F104">
         <v>5017.38</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G104" t="e">
+        <f>VLOOKUP(B104,Sheet1!A105:B135,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="6" t="s">
         <v>14</v>
       </c>
@@ -22671,8 +23083,12 @@
       <c r="F105">
         <v>5728.72</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G105" t="e">
+        <f>VLOOKUP(B105,Sheet1!A106:B136,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="5" t="s">
         <v>15</v>
       </c>
@@ -22691,8 +23107,12 @@
       <c r="F106">
         <v>1180.1199999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G106" t="e">
+        <f>VLOOKUP(B106,Sheet1!A107:B137,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="6" t="s">
         <v>15</v>
       </c>
@@ -22711,8 +23131,12 @@
       <c r="F107">
         <v>1479.21</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G107" t="e">
+        <f>VLOOKUP(B107,Sheet1!A108:B138,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" s="6" t="s">
         <v>15</v>
       </c>
@@ -22731,8 +23155,12 @@
       <c r="F108">
         <v>1787.25</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G108" t="e">
+        <f>VLOOKUP(B108,Sheet1!A109:B139,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>15</v>
       </c>
@@ -22751,8 +23179,12 @@
       <c r="F109">
         <v>2201.7399999999998</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G109" t="e">
+        <f>VLOOKUP(B109,Sheet1!A110:B140,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" s="6" t="s">
         <v>15</v>
       </c>
@@ -22771,8 +23203,12 @@
       <c r="F110">
         <v>2471.1999999999998</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G110" t="e">
+        <f>VLOOKUP(B110,Sheet1!A111:B141,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" s="6" t="s">
         <v>15</v>
       </c>
@@ -22791,8 +23227,12 @@
       <c r="F111">
         <v>2744.81</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G111" t="e">
+        <f>VLOOKUP(B111,Sheet1!A112:B142,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" s="6" t="s">
         <v>15</v>
       </c>
@@ -22811,8 +23251,12 @@
       <c r="F112">
         <v>2913.25</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G112" t="e">
+        <f>VLOOKUP(B112,Sheet1!A113:B143,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" s="6" t="s">
         <v>15</v>
       </c>
@@ -22831,8 +23275,12 @@
       <c r="F113">
         <v>3217.1</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G113" t="e">
+        <f>VLOOKUP(B113,Sheet1!A114:B144,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" s="5" t="s">
         <v>16</v>
       </c>
@@ -22851,8 +23299,12 @@
       <c r="F114">
         <v>3247.49</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G114" t="e">
+        <f>VLOOKUP(B114,Sheet1!A115:B145,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" s="6" t="s">
         <v>16</v>
       </c>
@@ -22871,8 +23323,12 @@
       <c r="F115">
         <v>4017.36</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G115" t="e">
+        <f>VLOOKUP(B115,Sheet1!A116:B146,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" s="6" t="s">
         <v>16</v>
       </c>
@@ -22891,8 +23347,12 @@
       <c r="F116">
         <v>4914.0600000000004</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G116" t="e">
+        <f>VLOOKUP(B116,Sheet1!A117:B147,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>16</v>
       </c>
@@ -22911,8 +23371,12 @@
       <c r="F117">
         <v>6221.72</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G117" t="e">
+        <f>VLOOKUP(B117,Sheet1!A118:B148,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" s="6" t="s">
         <v>16</v>
       </c>
@@ -22931,8 +23395,12 @@
       <c r="F118">
         <v>7027.67</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G118" t="e">
+        <f>VLOOKUP(B118,Sheet1!A119:B149,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" s="6" t="s">
         <v>16</v>
       </c>
@@ -22951,8 +23419,12 @@
       <c r="F119">
         <v>7798.47</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G119" t="e">
+        <f>VLOOKUP(B119,Sheet1!A120:B150,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" s="6" t="s">
         <v>16</v>
       </c>
@@ -22971,8 +23443,12 @@
       <c r="F120">
         <v>8472.4500000000007</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G120" t="e">
+        <f>VLOOKUP(B120,Sheet1!A121:B151,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121" s="6" t="s">
         <v>16</v>
       </c>
@@ -22991,8 +23467,12 @@
       <c r="F121">
         <v>9687.58</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G121" t="e">
+        <f>VLOOKUP(B121,Sheet1!A122:B152,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122" s="5" t="s">
         <v>17</v>
       </c>
@@ -23011,8 +23491,12 @@
       <c r="F122">
         <v>1210.07</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G122" t="e">
+        <f>VLOOKUP(B122,Sheet1!A123:B153,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123" s="6" t="s">
         <v>17</v>
       </c>
@@ -23031,8 +23515,12 @@
       <c r="F123">
         <v>1562.37</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G123" t="e">
+        <f>VLOOKUP(B123,Sheet1!A124:B154,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124" s="6" t="s">
         <v>17</v>
       </c>
@@ -23051,8 +23539,12 @@
       <c r="F124">
         <v>1923.26</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G124" t="e">
+        <f>VLOOKUP(B124,Sheet1!A125:B155,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>17</v>
       </c>
@@ -23071,8 +23563,12 @@
       <c r="F125">
         <v>2534.6</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G125" t="e">
+        <f>VLOOKUP(B125,Sheet1!A126:B156,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A126" s="6" t="s">
         <v>17</v>
       </c>
@@ -23091,8 +23587,12 @@
       <c r="F126">
         <v>3019.22</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G126" t="e">
+        <f>VLOOKUP(B126,Sheet1!A127:B157,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A127" s="6" t="s">
         <v>17</v>
       </c>
@@ -23111,8 +23611,12 @@
       <c r="F127">
         <v>3470.3</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G127" t="e">
+        <f>VLOOKUP(B127,Sheet1!A128:B158,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128" s="6" t="s">
         <v>17</v>
       </c>
@@ -23131,8 +23635,12 @@
       <c r="F128">
         <v>3882.7</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G128" t="e">
+        <f>VLOOKUP(B128,Sheet1!A129:B159,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129" s="6" t="s">
         <v>17</v>
       </c>
@@ -23151,8 +23659,12 @@
       <c r="F129">
         <v>4412.55</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G129" t="e">
+        <f>VLOOKUP(B129,Sheet1!A130:B160,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A130" s="5" t="s">
         <v>18</v>
       </c>
@@ -23171,8 +23683,12 @@
       <c r="F130">
         <v>2153.4299999999998</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G130" t="e">
+        <f>VLOOKUP(B130,Sheet1!A131:B161,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131" s="6" t="s">
         <v>18</v>
       </c>
@@ -23191,8 +23707,12 @@
       <c r="F131">
         <v>2682.39</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G131" t="e">
+        <f>VLOOKUP(B131,Sheet1!A132:B162,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132" s="6" t="s">
         <v>18</v>
       </c>
@@ -23211,8 +23731,12 @@
       <c r="F132">
         <v>3195.82</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G132" t="e">
+        <f>VLOOKUP(B132,Sheet1!A133:B163,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>18</v>
       </c>
@@ -23231,8 +23755,12 @@
       <c r="F133">
         <v>3905.85</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G133" t="e">
+        <f>VLOOKUP(B133,Sheet1!A134:B164,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A134" s="6" t="s">
         <v>18</v>
       </c>
@@ -23251,8 +23779,12 @@
       <c r="F134">
         <v>4558.59</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G134" t="e">
+        <f>VLOOKUP(B134,Sheet1!A135:B165,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135" s="6" t="s">
         <v>18</v>
       </c>
@@ -23271,8 +23803,12 @@
       <c r="F135">
         <v>5197.42</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G135" t="e">
+        <f>VLOOKUP(B135,Sheet1!A136:B166,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A136" s="6" t="s">
         <v>18</v>
       </c>
@@ -23291,8 +23827,12 @@
       <c r="F136">
         <v>5080.49</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G136" t="e">
+        <f>VLOOKUP(B136,Sheet1!A137:B167,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A137" s="6" t="s">
         <v>18</v>
       </c>
@@ -23311,8 +23851,12 @@
       <c r="F137">
         <v>4481.6099999999997</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="27" x14ac:dyDescent="0.4">
+      <c r="G137" t="e">
+        <f>VLOOKUP(B137,Sheet1!A138:B168,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="27" x14ac:dyDescent="0.4">
       <c r="A138" s="5" t="s">
         <v>19</v>
       </c>
@@ -23331,8 +23875,12 @@
       <c r="F138">
         <v>1454.57</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G138" t="e">
+        <f>VLOOKUP(B138,Sheet1!A139:B169,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A139" s="6" t="s">
         <v>19</v>
       </c>
@@ -23351,8 +23899,12 @@
       <c r="F139">
         <v>1926.84</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G139" t="e">
+        <f>VLOOKUP(B139,Sheet1!A140:B170,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A140" s="6" t="s">
         <v>19</v>
       </c>
@@ -23371,8 +23923,12 @@
       <c r="F140">
         <v>2273.5</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="27" x14ac:dyDescent="0.4">
+      <c r="G140" t="e">
+        <f>VLOOKUP(B140,Sheet1!A141:B171,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="27" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>19</v>
       </c>
@@ -23391,8 +23947,12 @@
       <c r="F141">
         <v>2989.21</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G141" t="e">
+        <f>VLOOKUP(B141,Sheet1!A142:B172,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A142" s="6" t="s">
         <v>19</v>
       </c>
@@ -23411,8 +23971,12 @@
       <c r="F142">
         <v>3425.99</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G142" t="e">
+        <f>VLOOKUP(B142,Sheet1!A143:B173,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A143" s="6" t="s">
         <v>19</v>
       </c>
@@ -23431,8 +23995,12 @@
       <c r="F143">
         <v>3686.52</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G143" t="e">
+        <f>VLOOKUP(B143,Sheet1!A144:B174,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A144" s="6" t="s">
         <v>19</v>
       </c>
@@ -23451,8 +24019,12 @@
       <c r="F144">
         <v>3879.98</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G144" t="e">
+        <f>VLOOKUP(B144,Sheet1!A145:B175,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145" s="6" t="s">
         <v>19</v>
       </c>
@@ -23471,8 +24043,12 @@
       <c r="F145">
         <v>4252.96</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="27" x14ac:dyDescent="0.4">
+      <c r="G145" t="e">
+        <f>VLOOKUP(B145,Sheet1!A146:B176,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="27" x14ac:dyDescent="0.4">
       <c r="A146" s="5" t="s">
         <v>20</v>
       </c>
@@ -23491,8 +24067,12 @@
       <c r="F146">
         <v>324.61</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G146" t="e">
+        <f>VLOOKUP(B146,Sheet1!A147:B177,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147" s="6" t="s">
         <v>20</v>
       </c>
@@ -23511,8 +24091,12 @@
       <c r="F147">
         <v>432.36</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G147" t="e">
+        <f>VLOOKUP(B147,Sheet1!A148:B178,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A148" s="6" t="s">
         <v>20</v>
       </c>
@@ -23531,8 +24115,12 @@
       <c r="F148">
         <v>557.53</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="27" x14ac:dyDescent="0.4">
+      <c r="G148" t="e">
+        <f>VLOOKUP(B148,Sheet1!A149:B179,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="27" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>20</v>
       </c>
@@ -23551,8 +24139,12 @@
       <c r="F149">
         <v>705.91</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G149" t="e">
+        <f>VLOOKUP(B149,Sheet1!A150:B180,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A150" s="6" t="s">
         <v>20</v>
       </c>
@@ -23571,8 +24163,12 @@
       <c r="F150">
         <v>864.36</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G150" t="e">
+        <f>VLOOKUP(B150,Sheet1!A151:B181,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A151" s="6" t="s">
         <v>20</v>
       </c>
@@ -23591,8 +24187,12 @@
       <c r="F151">
         <v>922.48</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G151" t="e">
+        <f>VLOOKUP(B151,Sheet1!A152:B182,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A152" s="6" t="s">
         <v>20</v>
       </c>
@@ -23611,8 +24211,12 @@
       <c r="F152">
         <v>1000.45</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G152" t="e">
+        <f>VLOOKUP(B152,Sheet1!A153:B183,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A153" s="6" t="s">
         <v>20</v>
       </c>
@@ -23631,8 +24235,12 @@
       <c r="F153">
         <v>1138.49</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G153" t="e">
+        <f>VLOOKUP(B153,Sheet1!A154:B184,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A154" s="5" t="s">
         <v>21</v>
       </c>
@@ -23651,8 +24259,12 @@
       <c r="F154">
         <v>363.6</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G154" t="e">
+        <f>VLOOKUP(B154,Sheet1!A155:B185,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A155" s="6" t="s">
         <v>21</v>
       </c>
@@ -23671,8 +24283,12 @@
       <c r="F155">
         <v>486.75</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G155" t="e">
+        <f>VLOOKUP(B155,Sheet1!A156:B186,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A156" s="6" t="s">
         <v>21</v>
       </c>
@@ -23691,8 +24307,12 @@
       <c r="F156">
         <v>743.4</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G156" t="e">
+        <f>VLOOKUP(B156,Sheet1!A157:B187,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
         <v>21</v>
       </c>
@@ -23711,8 +24331,12 @@
       <c r="F157">
         <v>967.47</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G157" t="e">
+        <f>VLOOKUP(B157,Sheet1!A158:B188,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A158" s="6" t="s">
         <v>21</v>
       </c>
@@ -23731,8 +24355,12 @@
       <c r="F158">
         <v>1159.05</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G158" t="e">
+        <f>VLOOKUP(B158,Sheet1!A159:B189,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A159" s="6" t="s">
         <v>21</v>
       </c>
@@ -23751,8 +24379,12 @@
       <c r="F159">
         <v>1228.05</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G159" t="e">
+        <f>VLOOKUP(B159,Sheet1!A160:B190,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A160" s="6" t="s">
         <v>21</v>
       </c>
@@ -23771,8 +24403,12 @@
       <c r="F160">
         <v>1347.43</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G160" t="e">
+        <f>VLOOKUP(B160,Sheet1!A161:B191,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A161" s="6" t="s">
         <v>21</v>
       </c>
@@ -23791,8 +24427,12 @@
       <c r="F161">
         <v>1515.16</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G161" t="e">
+        <f>VLOOKUP(B161,Sheet1!A162:B192,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A162" s="5" t="s">
         <v>22</v>
       </c>
@@ -23811,8 +24451,12 @@
       <c r="F162">
         <v>2704.66</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G162" t="e">
+        <f>VLOOKUP(B162,Sheet1!A163:B193,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A163" s="6" t="s">
         <v>22</v>
       </c>
@@ -23831,8 +24475,12 @@
       <c r="F163">
         <v>3267.67</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G163" t="e">
+        <f>VLOOKUP(B163,Sheet1!A164:B194,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A164" s="6" t="s">
         <v>22</v>
       </c>
@@ -23851,8 +24499,12 @@
       <c r="F164">
         <v>4145.03</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G164" t="e">
+        <f>VLOOKUP(B164,Sheet1!A165:B195,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
         <v>22</v>
       </c>
@@ -23871,8 +24523,12 @@
       <c r="F165">
         <v>5002.07</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G165" t="e">
+        <f>VLOOKUP(B165,Sheet1!A166:B196,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A166" s="6" t="s">
         <v>22</v>
       </c>
@@ -23891,8 +24547,12 @@
       <c r="F166">
         <v>5904.52</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G166" t="e">
+        <f>VLOOKUP(B166,Sheet1!A167:B197,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A167" s="6" t="s">
         <v>22</v>
       </c>
@@ -23911,8 +24571,12 @@
       <c r="F167">
         <v>6688.8</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G167" t="e">
+        <f>VLOOKUP(B167,Sheet1!A168:B198,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A168" s="6" t="s">
         <v>22</v>
       </c>
@@ -23931,8 +24595,12 @@
       <c r="F168">
         <v>7177.31</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G168" t="e">
+        <f>VLOOKUP(B168,Sheet1!A169:B199,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A169" s="6" t="s">
         <v>22</v>
       </c>
@@ -23951,8 +24619,12 @@
       <c r="F169">
         <v>8250.01</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G169" t="e">
+        <f>VLOOKUP(B169,Sheet1!A170:B200,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A170" s="5" t="s">
         <v>23</v>
       </c>
@@ -23971,8 +24643,12 @@
       <c r="F170">
         <v>1315.02</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G170" t="e">
+        <f>VLOOKUP(B170,Sheet1!A171:B201,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A171" s="6" t="s">
         <v>23</v>
       </c>
@@ -23991,8 +24667,12 @@
       <c r="F171">
         <v>1561.7</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G171" t="e">
+        <f>VLOOKUP(B171,Sheet1!A172:B202,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A172" s="6" t="s">
         <v>23</v>
       </c>
@@ -24011,8 +24691,12 @@
       <c r="F172">
         <v>1931.36</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G172" t="e">
+        <f>VLOOKUP(B172,Sheet1!A173:B203,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
         <v>23</v>
       </c>
@@ -24031,8 +24715,12 @@
       <c r="F173">
         <v>2363.85</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G173" t="e">
+        <f>VLOOKUP(B173,Sheet1!A174:B204,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A174" s="6" t="s">
         <v>23</v>
       </c>
@@ -24051,8 +24739,12 @@
       <c r="F174">
         <v>2759.46</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G174" t="e">
+        <f>VLOOKUP(B174,Sheet1!A175:B205,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A175" s="6" t="s">
         <v>23</v>
       </c>
@@ -24071,8 +24763,12 @@
       <c r="F175">
         <v>3030.13</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G175" t="e">
+        <f>VLOOKUP(B175,Sheet1!A176:B206,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A176" s="6" t="s">
         <v>23</v>
       </c>
@@ -24091,8 +24787,12 @@
       <c r="F176">
         <v>3085.28</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G176" t="e">
+        <f>VLOOKUP(B176,Sheet1!A177:B207,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A177" s="6" t="s">
         <v>23</v>
       </c>
@@ -24111,8 +24811,12 @@
       <c r="F177">
         <v>3422.97</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G177" t="e">
+        <f>VLOOKUP(B177,Sheet1!A178:B208,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A178" s="5" t="s">
         <v>24</v>
       </c>
@@ -24131,8 +24835,12 @@
       <c r="F178">
         <v>1428.52</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G178" t="e">
+        <f>VLOOKUP(B178,Sheet1!A179:B209,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A179" s="6" t="s">
         <v>24</v>
       </c>
@@ -24151,8 +24859,12 @@
       <c r="F179">
         <v>1841.64</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G179" t="e">
+        <f>VLOOKUP(B179,Sheet1!A180:B210,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A180" s="6" t="s">
         <v>24</v>
       </c>
@@ -24171,8 +24883,12 @@
       <c r="F180">
         <v>2218.83</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G180" t="e">
+        <f>VLOOKUP(B180,Sheet1!A181:B211,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
         <v>24</v>
       </c>
@@ -24191,8 +24907,12 @@
       <c r="F181">
         <v>2930.81</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G181" t="e">
+        <f>VLOOKUP(B181,Sheet1!A182:B212,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A182" s="6" t="s">
         <v>24</v>
       </c>
@@ -24211,8 +24931,12 @@
       <c r="F182">
         <v>3323.8</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G182" t="e">
+        <f>VLOOKUP(B182,Sheet1!A183:B213,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A183" s="6" t="s">
         <v>24</v>
       </c>
@@ -24231,8 +24955,12 @@
       <c r="F183">
         <v>3665.07</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G183" t="e">
+        <f>VLOOKUP(B183,Sheet1!A184:B214,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A184" s="6" t="s">
         <v>24</v>
       </c>
@@ -24251,8 +24979,12 @@
       <c r="F184">
         <v>3962.5</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G184" t="e">
+        <f>VLOOKUP(B184,Sheet1!A185:B215,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A185" s="6" t="s">
         <v>24</v>
       </c>
@@ -24271,8 +25003,12 @@
       <c r="F185">
         <v>4376.0600000000004</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G185" t="e">
+        <f>VLOOKUP(B185,Sheet1!A186:B216,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A186" s="5" t="s">
         <v>25</v>
       </c>
@@ -24291,8 +25027,12 @@
       <c r="F186">
         <v>2593.92</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G186" t="e">
+        <f>VLOOKUP(B186,Sheet1!A187:B217,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A187" s="6" t="s">
         <v>25</v>
       </c>
@@ -24311,8 +25051,12 @@
       <c r="F187">
         <v>2989.65</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G187" t="e">
+        <f>VLOOKUP(B187,Sheet1!A188:B218,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A188" s="6" t="s">
         <v>25</v>
       </c>
@@ -24331,8 +25075,12 @@
       <c r="F188">
         <v>3302.89</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G188" t="e">
+        <f>VLOOKUP(B188,Sheet1!A189:B219,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
         <v>25</v>
       </c>
@@ -24351,8 +25099,12 @@
       <c r="F189">
         <v>3914.88</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G189" t="e">
+        <f>VLOOKUP(B189,Sheet1!A190:B220,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A190" s="6" t="s">
         <v>25</v>
       </c>
@@ -24371,8 +25123,12 @@
       <c r="F190">
         <v>4184.0200000000004</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G190" t="e">
+        <f>VLOOKUP(B190,Sheet1!A191:B221,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A191" s="6" t="s">
         <v>25</v>
       </c>
@@ -24391,8 +25147,12 @@
       <c r="F191">
         <v>4528.6099999999997</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G191" t="e">
+        <f>VLOOKUP(B191,Sheet1!A192:B222,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A192" s="6" t="s">
         <v>25</v>
       </c>
@@ -24411,8 +25171,12 @@
       <c r="F192">
         <v>4923.4399999999996</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G192" t="e">
+        <f>VLOOKUP(B192,Sheet1!A193:B223,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A193" s="6" t="s">
         <v>25</v>
       </c>
@@ -24431,8 +25195,12 @@
       <c r="F193">
         <v>6191.56</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G193" t="e">
+        <f>VLOOKUP(B193,Sheet1!A194:B224,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A194" s="5" t="s">
         <v>26</v>
       </c>
@@ -24451,8 +25219,12 @@
       <c r="F194">
         <v>2948.83</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G194" t="e">
+        <f>VLOOKUP(B194,Sheet1!A195:B225,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A195" s="6" t="s">
         <v>26</v>
       </c>
@@ -24471,8 +25243,12 @@
       <c r="F195">
         <v>3590.72</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G195" t="e">
+        <f>VLOOKUP(B195,Sheet1!A196:B226,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A196" s="6" t="s">
         <v>26</v>
       </c>
@@ -24491,8 +25267,12 @@
       <c r="F196">
         <v>4257.9799999999996</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G196" t="e">
+        <f>VLOOKUP(B196,Sheet1!A197:B227,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A197" s="1" t="s">
         <v>26</v>
       </c>
@@ -24511,8 +25291,12 @@
       <c r="F197">
         <v>4674.92</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G197" t="e">
+        <f>VLOOKUP(B197,Sheet1!A198:B228,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A198" s="6" t="s">
         <v>26</v>
       </c>
@@ -24531,8 +25315,12 @@
       <c r="F198">
         <v>5450.99</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G198" t="e">
+        <f>VLOOKUP(B198,Sheet1!A199:B229,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A199" s="6" t="s">
         <v>26</v>
       </c>
@@ -24551,8 +25339,12 @@
       <c r="F199">
         <v>6220.91</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G199" t="e">
+        <f>VLOOKUP(B199,Sheet1!A200:B230,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A200" s="6" t="s">
         <v>26</v>
       </c>
@@ -24571,8 +25363,12 @@
       <c r="F200">
         <v>6796.61</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G200" t="e">
+        <f>VLOOKUP(B200,Sheet1!A201:B231,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A201" s="6" t="s">
         <v>26</v>
       </c>
@@ -24591,8 +25387,12 @@
       <c r="F201">
         <v>7497.51</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G201" t="e">
+        <f>VLOOKUP(B201,Sheet1!A202:B232,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A202" s="5" t="s">
         <v>27</v>
       </c>
@@ -24611,8 +25411,12 @@
       <c r="F202">
         <v>867.72</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G202" t="e">
+        <f>VLOOKUP(B202,Sheet1!A203:B233,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A203" s="6" t="s">
         <v>27</v>
       </c>
@@ -24631,8 +25435,12 @@
       <c r="F203">
         <v>1124.28</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G203" t="e">
+        <f>VLOOKUP(B203,Sheet1!A204:B234,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A204" s="6" t="s">
         <v>27</v>
       </c>
@@ -24651,8 +25459,12 @@
       <c r="F204">
         <v>1376.84</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G204" t="e">
+        <f>VLOOKUP(B204,Sheet1!A205:B235,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A205" s="1" t="s">
         <v>27</v>
       </c>
@@ -24671,8 +25483,12 @@
       <c r="F205">
         <v>1796.33</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G205" t="e">
+        <f>VLOOKUP(B205,Sheet1!A206:B236,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A206" s="6" t="s">
         <v>27</v>
       </c>
@@ -24691,8 +25507,12 @@
       <c r="F206">
         <v>2143.21</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G206" t="e">
+        <f>VLOOKUP(B206,Sheet1!A207:B237,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A207" s="6" t="s">
         <v>27</v>
       </c>
@@ -24711,8 +25531,12 @@
       <c r="F207">
         <v>2549.21</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G207" t="e">
+        <f>VLOOKUP(B207,Sheet1!A208:B238,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A208" s="6" t="s">
         <v>27</v>
       </c>
@@ -24731,8 +25555,12 @@
       <c r="F208">
         <v>2884.7</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G208" t="e">
+        <f>VLOOKUP(B208,Sheet1!A209:B239,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A209" s="6" t="s">
         <v>27</v>
       </c>
@@ -24751,8 +25579,12 @@
       <c r="F209">
         <v>3232.35</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" ht="27" x14ac:dyDescent="0.4">
+      <c r="G209" t="e">
+        <f>VLOOKUP(B209,Sheet1!A210:B240,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="27" x14ac:dyDescent="0.4">
       <c r="A210" s="5" t="s">
         <v>28</v>
       </c>
@@ -24771,8 +25603,12 @@
       <c r="F210">
         <v>380.66</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G210" t="e">
+        <f>VLOOKUP(B210,Sheet1!A211:B241,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A211" s="6" t="s">
         <v>28</v>
       </c>
@@ -24791,8 +25627,12 @@
       <c r="F211">
         <v>470.13</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G211" t="e">
+        <f>VLOOKUP(B211,Sheet1!A212:B242,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A212" s="6" t="s">
         <v>28</v>
       </c>
@@ -24811,8 +25651,12 @@
       <c r="F212">
         <v>551.04</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" ht="27" x14ac:dyDescent="0.4">
+      <c r="G212" t="e">
+        <f>VLOOKUP(B212,Sheet1!A213:B243,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="27" x14ac:dyDescent="0.4">
       <c r="A213" s="1" t="s">
         <v>28</v>
       </c>
@@ -24831,8 +25675,12 @@
       <c r="F213">
         <v>758.11</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G213" t="e">
+        <f>VLOOKUP(B213,Sheet1!A214:B244,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A214" s="6" t="s">
         <v>28</v>
       </c>
@@ -24851,8 +25699,12 @@
       <c r="F214">
         <v>905.34</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G214" t="e">
+        <f>VLOOKUP(B214,Sheet1!A215:B245,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A215" s="6" t="s">
         <v>28</v>
       </c>
@@ -24871,8 +25723,12 @@
       <c r="F215">
         <v>1014.31</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G215" t="e">
+        <f>VLOOKUP(B215,Sheet1!A216:B246,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A216" s="6" t="s">
         <v>28</v>
       </c>
@@ -24891,8 +25747,12 @@
       <c r="F216">
         <v>1185.51</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G216" t="e">
+        <f>VLOOKUP(B216,Sheet1!A217:B247,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A217" s="6" t="s">
         <v>28</v>
       </c>
@@ -24911,8 +25771,12 @@
       <c r="F217">
         <v>1381.46</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" ht="27" x14ac:dyDescent="0.4">
+      <c r="G217" t="e">
+        <f>VLOOKUP(B217,Sheet1!A218:B248,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="27" x14ac:dyDescent="0.4">
       <c r="A218" s="5" t="s">
         <v>29</v>
       </c>
@@ -24931,8 +25795,12 @@
       <c r="F218">
         <v>1059.3599999999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G218" t="e">
+        <f>VLOOKUP(B218,Sheet1!A219:B249,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A219" s="6" t="s">
         <v>29</v>
       </c>
@@ -24951,8 +25819,12 @@
       <c r="F219">
         <v>1346.91</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G219" t="e">
+        <f>VLOOKUP(B219,Sheet1!A220:B250,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A220" s="6" t="s">
         <v>29</v>
       </c>
@@ -24971,8 +25843,12 @@
       <c r="F220">
         <v>1698.91</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" ht="27" x14ac:dyDescent="0.4">
+      <c r="G220" t="e">
+        <f>VLOOKUP(B220,Sheet1!A221:B251,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="27" x14ac:dyDescent="0.4">
       <c r="A221" s="1" t="s">
         <v>29</v>
       </c>
@@ -24991,8 +25867,12 @@
       <c r="F221">
         <v>2284.4899999999998</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G221" t="e">
+        <f>VLOOKUP(B221,Sheet1!A222:B252,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A222" s="6" t="s">
         <v>29</v>
       </c>
@@ -25011,8 +25891,12 @@
       <c r="F222">
         <v>2720.07</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G222" t="e">
+        <f>VLOOKUP(B222,Sheet1!A223:B253,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A223" s="6" t="s">
         <v>29</v>
       </c>
@@ -25031,8 +25915,12 @@
       <c r="F223">
         <v>3067.12</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G223" t="e">
+        <f>VLOOKUP(B223,Sheet1!A224:B254,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A224" s="6" t="s">
         <v>29</v>
       </c>
@@ -25051,8 +25939,12 @@
       <c r="F224">
         <v>3317.79</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G224" t="e">
+        <f>VLOOKUP(B224,Sheet1!A225:B255,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A225" s="6" t="s">
         <v>29</v>
       </c>
@@ -25071,8 +25963,12 @@
       <c r="F225">
         <v>3804.87</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G225" t="e">
+        <f>VLOOKUP(B225,Sheet1!A226:B256,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A226" s="5" t="s">
         <v>30</v>
       </c>
@@ -25091,8 +25987,12 @@
       <c r="F226">
         <v>1470.24</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G226" t="e">
+        <f>VLOOKUP(B226,Sheet1!A227:B257,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A227" s="6" t="s">
         <v>30</v>
       </c>
@@ -25111,8 +26011,12 @@
       <c r="F227">
         <v>1952.34</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G227" t="e">
+        <f>VLOOKUP(B227,Sheet1!A228:B258,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A228" s="6" t="s">
         <v>30</v>
       </c>
@@ -25131,8 +26035,12 @@
       <c r="F228">
         <v>2285.7199999999998</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G228" t="e">
+        <f>VLOOKUP(B228,Sheet1!A229:B259,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A229" s="1" t="s">
         <v>30</v>
       </c>
@@ -25151,8 +26059,12 @@
       <c r="F229">
         <v>2929.6</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G229" t="e">
+        <f>VLOOKUP(B229,Sheet1!A230:B260,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A230" s="6" t="s">
         <v>30</v>
       </c>
@@ -25171,8 +26083,12 @@
       <c r="F230">
         <v>3572.66</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G230" t="e">
+        <f>VLOOKUP(B230,Sheet1!A231:B261,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A231" s="6" t="s">
         <v>30</v>
       </c>
@@ -25191,8 +26107,12 @@
       <c r="F231">
         <v>4096.51</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G231" t="e">
+        <f>VLOOKUP(B231,Sheet1!A232:B262,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A232" s="6" t="s">
         <v>30</v>
       </c>
@@ -25211,8 +26131,12 @@
       <c r="F232">
         <v>4437.9799999999996</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G232" t="e">
+        <f>VLOOKUP(B232,Sheet1!A233:B263,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A233" s="6" t="s">
         <v>30</v>
       </c>
@@ -25231,8 +26155,12 @@
       <c r="F233">
         <v>4712.83</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G233" t="e">
+        <f>VLOOKUP(B233,Sheet1!A234:B264,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A234" s="5" t="s">
         <v>31</v>
       </c>
@@ -25251,8 +26179,12 @@
       <c r="F234">
         <v>2208.58</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G234" t="e">
+        <f>VLOOKUP(B234,Sheet1!A235:B265,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A235" s="6" t="s">
         <v>31</v>
       </c>
@@ -25271,8 +26203,12 @@
       <c r="F235">
         <v>2653.35</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G235" t="e">
+        <f>VLOOKUP(B235,Sheet1!A236:B266,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A236" s="6" t="s">
         <v>31</v>
       </c>
@@ -25291,8 +26227,12 @@
       <c r="F236">
         <v>3207.88</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G236" t="e">
+        <f>VLOOKUP(B236,Sheet1!A237:B267,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A237" s="1" t="s">
         <v>31</v>
       </c>
@@ -25311,8 +26251,12 @@
       <c r="F237">
         <v>3842.59</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G237" t="e">
+        <f>VLOOKUP(B237,Sheet1!A238:B268,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A238" s="6" t="s">
         <v>31</v>
       </c>
@@ -25331,8 +26275,12 @@
       <c r="F238">
         <v>4161.88</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G238" t="e">
+        <f>VLOOKUP(B238,Sheet1!A239:B269,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A239" s="6" t="s">
         <v>31</v>
       </c>
@@ -25351,8 +26299,12 @@
       <c r="F239">
         <v>4730.47</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G239" t="e">
+        <f>VLOOKUP(B239,Sheet1!A240:B270,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A240" s="6" t="s">
         <v>31</v>
       </c>
@@ -25371,8 +26323,12 @@
       <c r="F240">
         <v>5159.57</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G240" t="e">
+        <f>VLOOKUP(B240,Sheet1!A241:B271,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A241" s="6" t="s">
         <v>31</v>
       </c>
@@ -25391,8 +26347,12 @@
       <c r="F241">
         <v>6645.98</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G241" t="e">
+        <f>VLOOKUP(B241,Sheet1!A242:B272,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A242" s="5" t="s">
         <v>32</v>
       </c>
@@ -25411,8 +26371,12 @@
       <c r="F242">
         <v>1016.01</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G242" t="e">
+        <f>VLOOKUP(B242,Sheet1!A243:B273,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A243" s="6" t="s">
         <v>32</v>
       </c>
@@ -25431,8 +26395,12 @@
       <c r="F243">
         <v>1292.0899999999999</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G243" t="e">
+        <f>VLOOKUP(B243,Sheet1!A244:B274,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A244" s="6" t="s">
         <v>32</v>
       </c>
@@ -25451,8 +26419,12 @@
       <c r="F244">
         <v>1709.04</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G244" t="e">
+        <f>VLOOKUP(B244,Sheet1!A245:B275,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A245" s="1" t="s">
         <v>32</v>
       </c>
@@ -25471,8 +26443,12 @@
       <c r="F245">
         <v>2570.2399999999998</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G245" t="e">
+        <f>VLOOKUP(B245,Sheet1!A246:B276,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A246" s="6" t="s">
         <v>32</v>
       </c>
@@ -25491,8 +26467,12 @@
       <c r="F246">
         <v>3046.36</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G246" t="e">
+        <f>VLOOKUP(B246,Sheet1!A247:B277,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A247" s="6" t="s">
         <v>32</v>
       </c>
@@ -25511,8 +26491,12 @@
       <c r="F247">
         <v>3062.28</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G247" t="e">
+        <f>VLOOKUP(B247,Sheet1!A248:B278,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A248" s="6" t="s">
         <v>32</v>
       </c>
@@ -25531,8 +26515,12 @@
       <c r="F248">
         <v>3304.39</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G248" t="e">
+        <f>VLOOKUP(B248,Sheet1!A249:B279,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A249" s="6" t="s">
         <v>32</v>
       </c>
@@ -25550,6 +26538,10 @@
       </c>
       <c r="F249">
         <v>3792</v>
+      </c>
+      <c r="G249" t="e">
+        <f>VLOOKUP(B249,Sheet1!A250:B280,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -27728,7 +28720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D1C92D-ACED-4C0E-9406-C5EFF87CBD43}">
   <dimension ref="A1:DQ590"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K9" sqref="K9"/>
     </sheetView>
